--- a/biology/Botanique/Fraxinus_angustifolia/Fraxinus_angustifolia.xlsx
+++ b/biology/Botanique/Fraxinus_angustifolia/Fraxinus_angustifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le frêne à feuilles étroites, frêne du Midi ou frêne oxyphylle (Fraxinus angustifolia) est une espèce de plantes à fleurs de la famille des Oléacées. C'est un arbre trouvé en Asie et en Europe. Un synonyme de cette espèce est Fraxinus oxyphylla.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques
-C'est un arbre pouvant atteindre une hauteur de 20 à 30 m avec un tronc d'un diamètre allant jusqu'à 1,5 m.
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre pouvant atteindre une hauteur de 20 à 30 m avec un tronc d'un diamètre allant jusqu'à 1,5 m.
 Organes reproducteurs :
 Type d'inflorescence : racème de racèmes
 Répartition des sexes :  hermaphrodite
@@ -554,7 +571,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fraxinus angustifolia Vahl subsp. angustifolia : arbres caducifoliés médioeuropéens, hydrophiles, subméditerranéens, méditerranéen occidental.
 Fraxinus angustifolia Vahl subsp. oxycarpa (Willd.) Franco &amp; Rocha Afonso : arbres caducifoliés médio-européens, hydrophiles, sub-méditerranéens, (eury)méditerranéen.
@@ -587,9 +606,11 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>de Fraxinus angustifolia subsp. oxycarpa « Raywood » . Ce cultivar est généralement planté comme arbre d'ornement ou d'alignement dans les régions tempérées. Il a une couleur d'automne remarquable, rouge bordeaux. Cet arbre a été découvert près d’Adélaïde en Australie et cultivé à la fin des années 1920 par John Stanley Gardiner, professeur à l’université de Cambridge, dans une propriété voisine dénommée Raywood (en)[1]. L’arbre a été introduit en Angleterre en 1928 et élevé dans les pépinières Notcutts (en) dans le Suffolk[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>de Fraxinus angustifolia subsp. oxycarpa « Raywood » . Ce cultivar est généralement planté comme arbre d'ornement ou d'alignement dans les régions tempérées. Il a une couleur d'automne remarquable, rouge bordeaux. Cet arbre a été découvert près d’Adélaïde en Australie et cultivé à la fin des années 1920 par John Stanley Gardiner, professeur à l’université de Cambridge, dans une propriété voisine dénommée Raywood (en). L’arbre a été introduit en Angleterre en 1928 et élevé dans les pépinières Notcutts (en) dans le Suffolk.
 de Fraxinus angustifolia subsp. angustifolia « Pendula Vera », véritable frêne pleureur à feuilles étroites.</t>
         </is>
       </c>
